--- a/tabs/map_info_dataframe.xlsx
+++ b/tabs/map_info_dataframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD-2025/11 BRes Data tematdb/tematdb117_pykeri2024/tabs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\gitgit\032 teMatDb1.1.6 to csv and filter  -- 20250506\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F1CA22EB-E082-4A90-8989-6623624A70AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C8CB03-044D-475B-BE62-1C33055E64CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90AA4C-FC68-44CC-AC7C-2BFC85DC0B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="read" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
   <si>
     <t>site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,42 @@
   </si>
   <si>
     <t>Tsukuba, Japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul, Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul National University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning Potential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThermoElectric Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seungwu HAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department of Materials Science and Engineering, College of Engineering, Seoul National University, 1 Gwanak-ro, Gwanak-gu, Seoul 08826, Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alloy design and interface structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,24 +400,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -392,12 +442,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -410,12 +459,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -428,13 +476,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -447,13 +493,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -466,12 +510,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -484,12 +527,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -502,12 +544,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -520,12 +561,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -536,8 +576,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -549,15 +587,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -565,6 +594,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -596,18 +634,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}" name="표1" displayName="표1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I9" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}" name="표1" displayName="표1" ref="A1:I10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:I10" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{03AA161E-E864-4331-AC14-B9C9DAF075CA}" name="City" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2E31BAC7-B3B9-4D60-96FD-1B77E2C90E7E}" name="color" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{76725A37-435A-47EA-AC16-5C7BF741E297}" name="size" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{40AD35C2-3494-4CCA-8424-8F12DCD25076}" name="site" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A5525C00-D1A9-402F-B174-CFFEE4388915}" name="who" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{467AEDF0-76C7-4D7F-994C-C6219532A7FA}" name="Collaboration" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6CF118A3-8975-446A-A427-93C39E0AD2EC}" name="latitude" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{353CBE02-EDA6-41BD-B979-FD2FB9CF6BED}" name="longitude" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D7F5FE2C-9BEC-42CE-B174-4CB9D79E25FE}" name="address" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{03AA161E-E864-4331-AC14-B9C9DAF075CA}" name="City" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2E31BAC7-B3B9-4D60-96FD-1B77E2C90E7E}" name="color" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{76725A37-435A-47EA-AC16-5C7BF741E297}" name="radius" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{40AD35C2-3494-4CCA-8424-8F12DCD25076}" name="site" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A5525C00-D1A9-402F-B174-CFFEE4388915}" name="who" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{467AEDF0-76C7-4D7F-994C-C6219532A7FA}" name="Collaboration" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6CF118A3-8975-446A-A427-93C39E0AD2EC}" name="latitude" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{353CBE02-EDA6-41BD-B979-FD2FB9CF6BED}" name="longitude" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D7F5FE2C-9BEC-42CE-B174-4CB9D79E25FE}" name="address" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -876,15 +914,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039E1221-B957-4248-8270-E37652A544F1}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="4" max="4" width="20.4375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.4375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="8" width="10.8125" customWidth="1"/>
@@ -892,255 +932,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="6">
+        <v>300</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1">
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6">
         <v>35.189891699999997</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>128.718154</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6">
+        <v>250</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6">
         <v>35.214959700000001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>128.67703890000001</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>250</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="6">
+        <v>37.456274999999998</v>
+      </c>
+      <c r="H4" s="6">
+        <v>126.950866</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="6">
+        <v>250</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="6">
         <v>36.372359600000003</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="6">
         <v>127.35869700000001</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
+      <c r="I5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="6">
+        <v>250</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="6">
         <v>50.855220000000003</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="6">
         <v>7.1196400000000004</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="6">
+        <v>250</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="6">
         <v>52.382620000000003</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H7" s="6">
         <v>-1.56124</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A7" s="3" t="s">
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="6">
+        <v>250</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>45.512439999999998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="6">
         <v>9.2126099999999997</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1">
-        <v>36.053690000000003</v>
-      </c>
-      <c r="H8" s="1">
-        <v>140.11903000000001</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="6">
+        <v>250</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6">
+        <v>36.053690000000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>140.11903000000001</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6">
+        <v>250</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="7">
         <v>36.064698200000002</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="7">
         <v>140.1204458</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1158,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
